--- a/test/testExportTable.xlsx
+++ b/test/testExportTable.xlsx
@@ -8,11 +8,88 @@
   <sheets>
     <sheet name="Test Table" r:id="rId3" sheetId="1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Test Table'!$A:$A,'Test Table'!$1:$1</definedName>
+    <definedName name="Div_By_Zero">'Test Table'!$K$2</definedName>
+    <definedName name="_1st_Valid_Subset">'Test Table'!$C$3:$D$5</definedName>
+    <definedName name="_2nd_Valid_Subset">'Test Table'!$B$3:$K$4</definedName>
+  </definedNames>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+    <author>TMS via POI</author>
+  </authors>
+  <commentList>
+    <comment ref="E1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>TMS via POI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+This is dCol</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>TMS via POI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+This cell has intentionality been set to an error</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="9.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>TMS via POI:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9.0"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+This is TMS Row 2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>A</t>
   </si>
@@ -23,10 +100,25 @@
     <t>C</t>
   </si>
   <si>
-    <t>Col 4</t>
-  </si>
-  <si>
-    <t>Col 5</t>
+    <t>D Col</t>
+  </si>
+  <si>
+    <t>D2 Col</t>
+  </si>
+  <si>
+    <t>D3 Col</t>
+  </si>
+  <si>
+    <t>Col 7</t>
+  </si>
+  <si>
+    <t>Col 8</t>
+  </si>
+  <si>
+    <t>Col 9</t>
+  </si>
+  <si>
+    <t>Col 10</t>
   </si>
   <si>
     <t>Blue Row</t>
@@ -53,7 +145,10 @@
     <t>Cyan</t>
   </si>
   <si>
-    <t>Row 5</t>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Mean</t>
   </si>
 </sst>
 </file>
@@ -61,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -71,12 +166,21 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="14.0"/>
       <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
-      <sz val="12.0"/>
+      <sz val="9.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="9.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="4">
@@ -109,150 +213,299 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <selection activeCell="B2" sqref="B2"/>
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="17"/>
   <cols>
-    <col min="1" max="1" width="12.0" customWidth="true"/>
+    <col min="1" max="1" width="15.0" customWidth="true"/>
+    <col min="2" max="2" style="1" width="17.0" customWidth="false"/>
+    <col min="3" max="3" style="1" width="17.0" customWidth="false"/>
+    <col min="4" max="4" style="1" width="17.0" customWidth="false"/>
+    <col min="5" max="5" style="1" width="17.0" customWidth="false"/>
+    <col min="6" max="6" style="1" width="17.0" customWidth="false"/>
+    <col min="7" max="7" style="1" width="17.0" customWidth="false"/>
+    <col min="8" max="8" style="1" width="17.0" customWidth="false"/>
+    <col min="9" max="9" style="1" width="17.0" customWidth="false"/>
+    <col min="10" max="10" style="1" width="17.0" customWidth="false"/>
+    <col min="11" max="11" style="1" width="17.0" customWidth="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
-      <c r="A1" s="1"/>
-      <c r="B1" t="s" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" t="s" s="2">
         <v>4</v>
       </c>
+      <c r="G1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="n">
         <v>12.0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#DIV/0!</v>
+      <c r="E2" t="n">
+        <f>B2 * 3.0</f>
+      </c>
+      <c r="F2" t="n">
+        <f>B2 * 10.0%</f>
+      </c>
+      <c r="G2" t="n">
+        <f>(((pi() + row()) + column()) + fact(randbetween(1.0, 8.0))) + power(row(), 2.0)</f>
+      </c>
+      <c r="H2" t="b">
+        <f>and((B2 &gt; 10.0), (G2 &lt; 100.0))</f>
+      </c>
+      <c r="I2" t="b">
+        <f>or((B2 &gt; 10.0), (G2 &lt; 100.0))</f>
+      </c>
+      <c r="J2">
+        <f>(1.0 + 2.0) &amp; " Row: " &amp; (row()) &amp; " " &amp; rept("*", row())</f>
+      </c>
+      <c r="K2" t="e">
+        <f>B2 / 0.0</f>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
         <v>13000.0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="b">
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>39000.0</v>
-      </c>
-      <c r="F3" s="2" t="e">
+      <c r="E3" t="n">
+        <f>B3 * 3.0</f>
+      </c>
+      <c r="F3" t="n">
+        <f>B3 * 10.0%</f>
+      </c>
+      <c r="G3" t="n">
+        <f>(((pi() + row()) + column()) + fact(randbetween(1.0, 8.0))) + power(row(), 2.0)</f>
+      </c>
+      <c r="H3" t="b">
+        <f>and((B3 &gt; 10.0), (G3 &lt; 100.0))</f>
+      </c>
+      <c r="I3" t="b">
+        <f>or((B3 &gt; 10.0), (G3 &lt; 100.0))</f>
+      </c>
+      <c r="J3">
+        <f>(1.0 + 2.0) &amp; " Row: " &amp; (row()) &amp; " " &amp; rept("*", row())</f>
+      </c>
+      <c r="K3" t="e">
         <v>#NUM!</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B4" t="n">
         <v>-12.0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="b">
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>-36.0</v>
-      </c>
-      <c r="F4" t="e">
+      <c r="E4" t="n">
+        <f>B4 * 3.0</f>
+      </c>
+      <c r="F4" t="n">
+        <f>B4 * 10.0%</f>
+      </c>
+      <c r="G4" t="n">
+        <f>(((pi() + row()) + column()) + fact(randbetween(1.0, 8.0))) + power(row(), 2.0)</f>
+      </c>
+      <c r="H4" t="b">
+        <f>and((B4 &gt; 10.0), (G4 &lt; 100.0))</f>
+      </c>
+      <c r="I4" t="b">
+        <f>or((B4 &gt; 10.0), (G4 &lt; 100.0))</f>
+      </c>
+      <c r="J4">
+        <f>(1.0 + 2.0) &amp; " Row: " &amp; (row()) &amp; " " &amp; rept("*", row())</f>
+      </c>
+      <c r="K4" t="e">
         <v>#NUM!</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
         <v>17.65</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="b">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>52.95</v>
-      </c>
-      <c r="F5" t="e">
+      <c r="E5" t="n">
+        <f>B5 * 3.0</f>
+      </c>
+      <c r="F5" t="n">
+        <f>B5 * 10.0%</f>
+      </c>
+      <c r="G5" t="n">
+        <f>(((pi() + row()) + column()) + fact(randbetween(1.0, 8.0))) + power(row(), 2.0)</f>
+      </c>
+      <c r="H5" t="b">
+        <f>and((B5 &gt; 10.0), (G5 &lt; 100.0))</f>
+      </c>
+      <c r="I5" t="b">
+        <f>or((B5 &gt; 10.0), (G5 &lt; 100.0))</f>
+      </c>
+      <c r="J5">
+        <f>(1.0 + 2.0) &amp; " Row: " &amp; (row()) &amp; " " &amp; rept("*", row())</f>
+      </c>
+      <c r="K5" t="e">
         <v>#NAME?</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>13017.65</v>
+      <c r="A6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <f>sum(B2:B5)</f>
       </c>
       <c r="C6" t="e">
-        <v>#NUM!</v>
+        <f>sum(C2:C5)</f>
       </c>
       <c r="D6" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>39052.95</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#NUM!</v>
+        <f>sum(D2:D5)</f>
+      </c>
+      <c r="E6" t="n">
+        <f>sum(E2:E5)</f>
+      </c>
+      <c r="F6" t="n">
+        <f>sum(F2:F5)</f>
+      </c>
+      <c r="G6" t="n">
+        <f>sum(G2:G5)</f>
+      </c>
+      <c r="H6" t="e">
+        <f>sum(H2:H5)</f>
+      </c>
+      <c r="I6" t="e">
+        <f>sum(I2:I5)</f>
+      </c>
+      <c r="J6" t="e">
+        <f>sum(J2:J5)</f>
+      </c>
+      <c r="K6" t="e">
+        <f>sum(K2:K5)</f>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <f>average(B2:B5)</f>
+      </c>
+      <c r="C7" t="e">
+        <f>average(C2:C5)</f>
+      </c>
+      <c r="D7" t="e">
+        <f>average(D2:D5)</f>
+      </c>
+      <c r="E7" t="n">
+        <f>average(E2:E5)</f>
+      </c>
+      <c r="F7" t="n">
+        <f>average(F2:F5)</f>
+      </c>
+      <c r="G7" t="n">
+        <f>average(G2:G5)</f>
+      </c>
+      <c r="H7" t="e">
+        <f>average(H2:H5)</f>
+      </c>
+      <c r="I7" t="e">
+        <f>average(I2:I5)</f>
+      </c>
+      <c r="J7" t="e">
+        <f>average(J2:J5)</f>
+      </c>
+      <c r="K7" t="e">
+        <f>average(K2:K5)</f>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup usePrinterDefaults="false"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>